--- a/public/template/replyTemp.xlsx
+++ b/public/template/replyTemp.xlsx
@@ -4,17 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8080"/>
+    <workbookView windowWidth="32145" windowHeight="15885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>项目名称</t>
   </si>
@@ -30,60 +46,30 @@
   <si>
     <t>可研变电容量</t>
   </si>
-  <si>
-    <t>XXXXXXXXXXXXXX建设工程</t>
-  </si>
-  <si>
-    <t>WBS编码</t>
-  </si>
-  <si>
-    <t>国网新疆电力有限公司乌鲁木齐供电公司</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -91,14 +77,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -106,7 +92,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -114,7 +100,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -122,7 +108,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +116,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -138,14 +124,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +139,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +147,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -169,14 +155,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -184,47 +170,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +219,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,27 +410,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,9 +518,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,152 +534,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -757,221 +719,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -981,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -997,38 +745,38 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1061,9 +809,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1093,40 +841,66 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1140,38 +914,20 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -1230,75 +986,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="38.9090909090909" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.4545454545455" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.2727272727273" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/public/template/replyTemp.xlsx
+++ b/public/template/replyTemp.xlsx
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>业主单位</t>
+  </si>
+  <si>
+    <t>设计单位</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -41,10 +47,10 @@
     <t>所在市</t>
   </si>
   <si>
-    <t>可研线路长度</t>
+    <t>可研线路长度（km）</t>
   </si>
   <si>
-    <t>可研变电容量</t>
+    <t>可研变电容量（MVA）</t>
   </si>
 </sst>
 </file>
@@ -986,20 +992,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,6 +1028,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/replyTemp.xlsx
+++ b/public/template/replyTemp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>项目编码</t>
-  </si>
-  <si>
-    <t>所在市</t>
   </si>
   <si>
     <t>可研线路长度（km）</t>
@@ -992,24 +989,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="30.25" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,9 +1027,6 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
